--- a/homework/hw7/NLP.xlsx
+++ b/homework/hw7/NLP.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ziyu/Library/Containers/com.microsoft.Excel/Data/Desktop/Study Affairs/2018-Fall/cs598-deep-learning/homework/hw7/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE0AA3F-3D7A-3A4B-9A8F-678E967A0CD2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="9200" yWindow="0" windowWidth="19600" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
   <si>
     <t>Natural Language Processing - IMDB Movie Review</t>
   </si>
@@ -46,9 +55,6 @@
     <t>ADAM optimizer with LR=0.001, BatchSize=200, VocabularySize=8000, HiddenUnits=500</t>
   </si>
   <si>
-    <t>should be around 86-88%</t>
-  </si>
-  <si>
     <t>Describe more about the model/results such as why certain hyperparamters were chosen or the effect it had on the accuracy/training time/overfitting/etc.</t>
   </si>
   <si>
@@ -67,18 +73,9 @@
     <t>Given Model - (write description)</t>
   </si>
   <si>
-    <t>Should be around ~81-87%</t>
-  </si>
-  <si>
     <t>Part 2a</t>
   </si>
   <si>
-    <t>~87%</t>
-  </si>
-  <si>
-    <t>~91%</t>
-  </si>
-  <si>
     <t>Part 3a</t>
   </si>
   <si>
@@ -107,23 +104,77 @@
   </si>
   <si>
     <t>~91%+</t>
+  </si>
+  <si>
+    <t>ADAM optimizer with LR=0.001, BatchSize=200, VocabularySize=100000, HiddenUnits=500</t>
+  </si>
+  <si>
+    <t>Part 2b</t>
+  </si>
+  <si>
+    <t>ADAM optimizer with LR=0.001, BatchSize=200, VocabularySize=100000, HiddenUnits=500, SequenceLengthOfTrain=100, SequenceLengthOfTest=100</t>
+  </si>
+  <si>
+    <t>ADAM optimizer with LR=0.001, BatchSize=200, VocabularySize=8000, HiddenUnits=500, SequenceLengthOfTrain=100, SequenceLengthOfTest=100</t>
+  </si>
+  <si>
+    <t>84.82%. ~91%</t>
+  </si>
+  <si>
+    <t>81.94% ~87%</t>
+  </si>
+  <si>
+    <t>ADAM optimizer with LR=0.001, BatchSize=200, VocabularySize=8000, HiddenUnits=1000</t>
+  </si>
+  <si>
+    <t>ADAM optimizer with LR=0.001, BatchSize=200, VocabularySize=8000, HiddenUnits=10</t>
+  </si>
+  <si>
+    <t>The number of hidden units is decreased to 10 to make the model underfit. The test accuracy  and training accuracy decrease a lot and the training loss is still high, meaning that the model is underfitting.</t>
+  </si>
+  <si>
+    <t>ADAM optimizer with LR=0.001, BatchSize=200, VocabularySize=100000, HiddenUnits=5000</t>
+  </si>
+  <si>
+    <t>The number of hidden units is increased to 5000 to make the model overfit. The training accuracy increases a little bit, and the test accuracy is decreased by 1%. The effect on overfitting is not very obvious. The training time doesn’t change much since it's already very small.</t>
+  </si>
+  <si>
+    <t>The number of hidden units is increased to 1000 to make the model overfit. The training accuracy increases a little bit, and the test accuracy is decreased by 1%. The effect on overfitting is not very obvious, but we can still see that as the training accuracy increases, the test accuracy is decreasing. Besides, increasing the number of hidden units increases the training time greatly, from 17 seconds to 27 seconds per epoch.</t>
+  </si>
+  <si>
+    <t>The number of hidden units is decreased to 10 to make the model underfit. The training accuracy decreases by 3%, while the test accuracy doesn't change much. Despite its purpose, this change seems to alleviate the overfitting problem of the original model. A possible reason is that the function we want to approximate using our network is not that complex so making the model simpler won't hurt the performance.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="SFMono-Regular"/>
     </font>
   </fonts>
@@ -132,69 +183,381 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="22.0"/>
-    <col customWidth="1" min="3" max="3" width="33.0"/>
-    <col customWidth="1" min="4" max="4" width="17.86"/>
-    <col customWidth="1" min="6" max="6" width="16.71"/>
-    <col customWidth="1" min="8" max="8" width="72.43"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="33" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="8" max="8" width="72.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" ht="13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" ht="13">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -217,7 +580,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="64.5" customHeight="1">
+    <row r="3" spans="1:8" ht="64.5" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -228,42 +591,70 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.1464</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.94379999999999997</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.872</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:8" ht="65">
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="4">
+        <v>6</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.12509999999999999</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.9526</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.86070000000000002</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="39">
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5">
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="4">
+        <v>6</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.42559999999999998</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.81440000000000001</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.83240000000000003</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="13">
+      <c r="B6" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6">
-      <c r="B6" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -272,50 +663,82 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8" ht="52">
       <c r="A8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="3" t="s">
-        <v>18</v>
+      <c r="C8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="4">
+        <v>6</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.2984</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.87539999999999996</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.85719999999999996</v>
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8" ht="52">
       <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10">
+        <v>12</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="4">
+        <v>6</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.28870000000000001</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.84519999999999995</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="65">
       <c r="A10" s="4"/>
       <c r="B10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11">
+        <v>13</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="4">
+        <v>6</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.36940000000000001</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.84040000000000004</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.85340000000000005</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="13">
       <c r="A11" s="4"/>
       <c r="B11" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -324,7 +747,7 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8" ht="13">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -334,26 +757,34 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:8" ht="65">
       <c r="A13" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="4">
         <v>20</v>
       </c>
+      <c r="E13">
+        <v>0.10150000000000001</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0.9637</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:8" ht="13">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -362,10 +793,10 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:8" ht="13">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -374,10 +805,10 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:8" ht="13">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -386,7 +817,7 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:8" ht="13">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -396,26 +827,34 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:8" ht="78">
       <c r="A18" s="3" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="4">
+        <v>20</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.2099</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.91520000000000001</v>
+      </c>
       <c r="G18" s="3" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:8" ht="13">
       <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -424,10 +863,10 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:8" ht="13">
       <c r="A20" s="4"/>
       <c r="B20" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -436,10 +875,10 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:8" ht="13">
       <c r="A21" s="4"/>
       <c r="B21" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -448,69 +887,82 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="23">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:8" s="6" customFormat="1" ht="13">
+      <c r="A23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:8" s="6" customFormat="1" ht="13">
+      <c r="A26" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="D26" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="s">
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="1:8" s="6" customFormat="1" ht="13">
+      <c r="B27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="D27" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="1:8" s="6" customFormat="1" ht="13">
+      <c r="B28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:8" s="6" customFormat="1" ht="13">
+      <c r="A31" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="B31" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27">
-      <c r="B27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="B32" s="2" t="s">
+    <row r="32" spans="1:8" s="6" customFormat="1" ht="13">
+      <c r="B32" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" s="6" customFormat="1" ht="13">
+      <c r="B33" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="33">
-      <c r="B33" s="2" t="s">
+    <row r="34" spans="2:2" s="6" customFormat="1" ht="13">
+      <c r="B34" s="6" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="B34" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -519,6 +971,6 @@
     <mergeCell ref="D27:G27"/>
     <mergeCell ref="D28:G28"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/homework/hw7/NLP.xlsx
+++ b/homework/hw7/NLP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ziyu/Library/Containers/com.microsoft.Excel/Data/Desktop/Study Affairs/2018-Fall/cs598-deep-learning/homework/hw7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE0AA3F-3D7A-3A4B-9A8F-678E967A0CD2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153E9A24-556A-EE4B-8765-3289EE272D94}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9200" yWindow="0" windowWidth="19600" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6120" yWindow="200" windowWidth="22020" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
   <si>
     <t>Natural Language Processing - IMDB Movie Review</t>
   </si>
@@ -115,15 +115,9 @@
     <t>ADAM optimizer with LR=0.001, BatchSize=200, VocabularySize=100000, HiddenUnits=500, SequenceLengthOfTrain=100, SequenceLengthOfTest=100</t>
   </si>
   <si>
-    <t>ADAM optimizer with LR=0.001, BatchSize=200, VocabularySize=8000, HiddenUnits=500, SequenceLengthOfTrain=100, SequenceLengthOfTest=100</t>
-  </si>
-  <si>
     <t>84.82%. ~91%</t>
   </si>
   <si>
-    <t>81.94% ~87%</t>
-  </si>
-  <si>
     <t>ADAM optimizer with LR=0.001, BatchSize=200, VocabularySize=8000, HiddenUnits=1000</t>
   </si>
   <si>
@@ -143,6 +137,15 @@
   </si>
   <si>
     <t>The number of hidden units is decreased to 10 to make the model underfit. The training accuracy decreases by 3%, while the test accuracy doesn't change much. Despite its purpose, this change seems to alleviate the overfitting problem of the original model. A possible reason is that the function we want to approximate using our network is not that complex so making the model simpler won't hurt the performance.</t>
+  </si>
+  <si>
+    <t>ADAM optimizer with LR=0.001, BatchSize=200, VocabularySize=8000, HiddenUnits=500, SequenceLengthOfTrain=100, SequenceLengthOfTest=400</t>
+  </si>
+  <si>
+    <t>ADAM optimizer with LR=0.001, BatchSize=200, VocabularySize=8000, HiddenUnits=500, SequenceLengthOfTrain=400, SequenceLengthOfTest=400</t>
+  </si>
+  <si>
+    <t>The sequence length for training is increased from 100 to 400. The model is now overfitting. Training accuracy is approaching 100% while test accuracy is only 79.07%, which is worse than the given model.</t>
   </si>
 </sst>
 </file>
@@ -539,8 +542,8 @@
   </sheetPr>
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -611,7 +614,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D4" s="4">
         <v>6</v>
@@ -626,7 +629,7 @@
         <v>0.86070000000000002</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="39">
@@ -634,7 +637,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D5" s="4">
         <v>6</v>
@@ -649,7 +652,7 @@
         <v>0.83240000000000003</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="13">
@@ -693,7 +696,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D9" s="4">
         <v>6</v>
@@ -708,7 +711,7 @@
         <v>0.84519999999999995</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="65">
@@ -717,7 +720,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D10" s="4">
         <v>6</v>
@@ -732,7 +735,7 @@
         <v>0.85340000000000005</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="13">
@@ -765,7 +768,7 @@
         <v>16</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D13" s="4">
         <v>20</v>
@@ -776,22 +779,34 @@
       <c r="F13" s="10">
         <v>0.9637</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>33</v>
+      <c r="G13" s="5">
+        <v>0.87690000000000001</v>
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="13">
+    <row r="14" spans="1:8" ht="65">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="4">
+        <v>20</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.99429999999999996</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.79069999999999996</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="13">
       <c r="A15" s="4"/>
@@ -847,7 +862,7 @@
         <v>0.91520000000000001</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H18" s="4"/>
     </row>

--- a/homework/hw7/NLP.xlsx
+++ b/homework/hw7/NLP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ziyu/Library/Containers/com.microsoft.Excel/Data/Desktop/Study Affairs/2018-Fall/cs598-deep-learning/homework/hw7/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ziyu/Desktop/Study Affairs/2018-Fall/cs598-deep-learning/homework/hw7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153E9A24-556A-EE4B-8765-3289EE272D94}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED786AEB-4CD8-554C-8894-029DE8C22BCC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6120" yWindow="200" windowWidth="22020" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5280" yWindow="200" windowWidth="22020" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
   <si>
     <t>Natural Language Processing - IMDB Movie Review</t>
   </si>
@@ -70,9 +70,6 @@
     <t>Part 1b</t>
   </si>
   <si>
-    <t>Given Model - (write description)</t>
-  </si>
-  <si>
     <t>Part 2a</t>
   </si>
   <si>
@@ -112,24 +109,9 @@
     <t>Part 2b</t>
   </si>
   <si>
-    <t>ADAM optimizer with LR=0.001, BatchSize=200, VocabularySize=100000, HiddenUnits=500, SequenceLengthOfTrain=100, SequenceLengthOfTest=100</t>
-  </si>
-  <si>
-    <t>84.82%. ~91%</t>
-  </si>
-  <si>
-    <t>ADAM optimizer with LR=0.001, BatchSize=200, VocabularySize=8000, HiddenUnits=1000</t>
-  </si>
-  <si>
-    <t>ADAM optimizer with LR=0.001, BatchSize=200, VocabularySize=8000, HiddenUnits=10</t>
-  </si>
-  <si>
     <t>The number of hidden units is decreased to 10 to make the model underfit. The test accuracy  and training accuracy decrease a lot and the training loss is still high, meaning that the model is underfitting.</t>
   </si>
   <si>
-    <t>ADAM optimizer with LR=0.001, BatchSize=200, VocabularySize=100000, HiddenUnits=5000</t>
-  </si>
-  <si>
     <t>The number of hidden units is increased to 5000 to make the model overfit. The training accuracy increases a little bit, and the test accuracy is decreased by 1%. The effect on overfitting is not very obvious. The training time doesn’t change much since it's already very small.</t>
   </si>
   <si>
@@ -142,17 +124,177 @@
     <t>ADAM optimizer with LR=0.001, BatchSize=200, VocabularySize=8000, HiddenUnits=500, SequenceLengthOfTrain=100, SequenceLengthOfTest=400</t>
   </si>
   <si>
-    <t>ADAM optimizer with LR=0.001, BatchSize=200, VocabularySize=8000, HiddenUnits=500, SequenceLengthOfTrain=400, SequenceLengthOfTest=400</t>
-  </si>
-  <si>
     <t>The sequence length for training is increased from 100 to 400. The model is now overfitting. Training accuracy is approaching 100% while test accuracy is only 79.07%, which is worse than the given model.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ADAM optimizer with LR=0.001, BatchSize=200, VocabularySize=8000, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>HiddenUnits=1000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ADAM optimizer with LR=0.001, BatchSize=200, VocabularySize=8000, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>HiddenUnits=10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ADAM optimizer with LR=0.001, BatchSize=200, VocabularySize=100000, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>HiddenUnits=5000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ADAM optimizer with LR=0.001, BatchSize=200, VocabularySize=8000, HiddenUnits=500, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SequenceLengthOfTrain=400</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, SequenceLengthOfTest=400</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ADAM optimizer with LR=0.001, BatchSize=200, VocabularySize=8000, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>HiddenUnits=100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, SequenceLengthOfTrain=100, SequenceLengthOfTest=400</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ADAM optimizer with LR=0.001, BatchSize=200, VocabularySize=100000, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>HiddenUnits=100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, SequenceLengthOfTrain=100, SequenceLengthOfTest=400</t>
+    </r>
+  </si>
+  <si>
+    <t>The model doesn't seem to suffer from overfitting as the training accuracy and test accuracy are quite close to each other.</t>
+  </si>
+  <si>
+    <t>Given Model -  Fully Connected Layer + Relu + Output Layer</t>
+  </si>
+  <si>
+    <t>Custom 1 - Same as the given model</t>
+  </si>
+  <si>
+    <t>Custom 2 - Same as the given model</t>
+  </si>
+  <si>
+    <t>Given Model - Word Embedding Layer + LSTM Layer + Max Pooling + Fuly Connected Layer + Output Layer</t>
+  </si>
+  <si>
+    <t>Given Model - LSTM Layer + Max Pooling + Fuly Connected Layer + Output Layer</t>
+  </si>
+  <si>
+    <t>ADAM optimizer with LR=0.001, BatchSize=200, VocabularySize=100000, HiddenUnits=500, SequenceLengthOfTrain=100, SequenceLengthOfTest=400</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ADAM optimizer with LR=0.001, BatchSize=200, VocabularySize=100000, HiddenUnits=500, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SequenceLengthOfTrain=400</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, SequenceLengthOfTest=400</t>
+    </r>
+  </si>
+  <si>
+    <t>The sequence length for training is increased from 100 to 400. The model is now overfitting. Training accuracy is approaching 100% while test accuracy is only 82.48%, which is worse than the given model.</t>
+  </si>
+  <si>
+    <t>The model doesn't seem to suffer from overfitting as the training accuracy and test accuracy are quite close to each other. However, it might be a little bit underfitting because during the training process, the test accuracy is still increasing.</t>
+  </si>
+  <si>
+    <t>The model does not perform very well because enven though the training accuracy reaches ~96%, the test accuracy is just 87%.</t>
+  </si>
+  <si>
+    <t>The number of hidden units is decreased to 100 to make the model underfit. Now the training accuracy is smaller than the given model. Interestingly, the test accuracy doesn't decrease much. A potential explanation is that the given model is overfitting so decreasing the number of hidden units is actually alleviating this problem.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -179,6 +321,12 @@
       <sz val="10"/>
       <color theme="0" tint="-0.249977111117893"/>
       <name val="SFMono-Regular"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -539,11 +687,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -611,10 +760,10 @@
     </row>
     <row r="4" spans="1:8" ht="65">
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D4" s="4">
         <v>6</v>
@@ -629,15 +778,15 @@
         <v>0.86070000000000002</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="39">
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D5" s="4">
         <v>6</v>
@@ -652,7 +801,7 @@
         <v>0.83240000000000003</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="13">
@@ -671,10 +820,10 @@
         <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="4">
         <v>6</v>
@@ -688,15 +837,17 @@
       <c r="G8" s="5">
         <v>0.85719999999999996</v>
       </c>
-      <c r="H8" s="4"/>
+      <c r="H8" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="52">
       <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D9" s="4">
         <v>6</v>
@@ -711,16 +862,16 @@
         <v>0.84519999999999995</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="65">
       <c r="A10" s="4"/>
       <c r="B10" s="3" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D10" s="4">
         <v>6</v>
@@ -735,7 +886,7 @@
         <v>0.85340000000000005</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="13">
@@ -762,13 +913,13 @@
     </row>
     <row r="13" spans="1:8" ht="65">
       <c r="A13" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D13" s="4">
         <v>20</v>
@@ -782,15 +933,17 @@
       <c r="G13" s="5">
         <v>0.87690000000000001</v>
       </c>
-      <c r="H13" s="4"/>
+      <c r="H13" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="65">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D14" s="4">
         <v>20</v>
@@ -805,20 +958,32 @@
         <v>0.79069999999999996</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="13">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="65">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="4">
+        <v>20</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.22509999999999999</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0.91</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0.84489999999999998</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="13">
       <c r="A16" s="4"/>
@@ -844,13 +1009,13 @@
     </row>
     <row r="18" spans="1:8" ht="78">
       <c r="A18" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D18" s="4">
         <v>20</v>
@@ -861,34 +1026,60 @@
       <c r="F18" s="5">
         <v>0.91520000000000001</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:8" ht="13">
+      <c r="G18" s="5">
+        <v>0.88329999999999997</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="78">
       <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="1:8" ht="13">
+        <v>43</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="4">
+        <v>20</v>
+      </c>
+      <c r="E19" s="4">
+        <v>7.0699999999999999E-2</v>
+      </c>
+      <c r="F19" s="10">
+        <v>0.97450000000000003</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0.82479999999999998</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="78">
       <c r="A20" s="4"/>
       <c r="B20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="4">
+        <v>20</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.30120000000000002</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0.87009999999999998</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0.86180000000000001</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="21" spans="1:8" ht="13">
       <c r="A21" s="4"/>
@@ -904,26 +1095,26 @@
     </row>
     <row r="23" spans="1:8" s="6" customFormat="1" ht="13">
       <c r="A23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="25" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="26" spans="1:8" s="6" customFormat="1" ht="13">
       <c r="A26" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="C26" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="D26" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
@@ -931,13 +1122,13 @@
     </row>
     <row r="27" spans="1:8" s="6" customFormat="1" ht="13">
       <c r="B27" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C27" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
@@ -945,7 +1136,7 @@
     </row>
     <row r="28" spans="1:8" s="6" customFormat="1" ht="13">
       <c r="B28" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="8"/>
@@ -956,13 +1147,13 @@
     <row r="30" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="31" spans="1:8" s="6" customFormat="1" ht="13">
       <c r="A31" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="6" customFormat="1" ht="13">
@@ -987,5 +1178,6 @@
     <mergeCell ref="D28:G28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="47" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/homework/hw7/NLP.xlsx
+++ b/homework/hw7/NLP.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ziyu/Desktop/Study Affairs/2018-Fall/cs598-deep-learning/homework/hw7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED786AEB-4CD8-554C-8894-029DE8C22BCC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCBDE05-8DE8-2E4A-85E9-78670C1B27E5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5280" yWindow="200" windowWidth="22020" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$21</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -337,12 +340,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -351,17 +369,6 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -370,7 +377,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -692,7 +708,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection sqref="A1:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -705,469 +721,490 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" ht="13">
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="64.5" customHeight="1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="8">
         <v>6</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="8">
         <v>0.1464</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="9">
         <v>0.94379999999999997</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="9">
         <v>0.872</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="65">
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="8">
         <v>6</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="8">
         <v>0.12509999999999999</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="9">
         <v>0.9526</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="9">
         <v>0.86070000000000002</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="39">
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="8">
         <v>6</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="8">
         <v>0.42559999999999998</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="9">
         <v>0.81440000000000001</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="9">
         <v>0.83240000000000003</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="13">
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" ht="52">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="8">
         <v>6</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="8">
         <v>0.2984</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="9">
         <v>0.87539999999999996</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="9">
         <v>0.85719999999999996</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="52">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="8">
         <v>6</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="8">
         <v>0.28870000000000001</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="9">
         <v>0.88</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="9">
         <v>0.84519999999999995</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="65">
-      <c r="A10" s="4"/>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="8">
         <v>6</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="8">
         <v>0.36940000000000001</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="9">
         <v>0.84040000000000004</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="9">
         <v>0.85340000000000005</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="13">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" ht="13">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8" ht="65">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="8">
         <v>20</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="6">
         <v>0.10150000000000001</v>
       </c>
       <c r="F13" s="10">
         <v>0.9637</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="9">
         <v>0.87690000000000001</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="65">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3" t="s">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="8">
         <v>20</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="8">
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="9">
         <v>0.99429999999999996</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="9">
         <v>0.79069999999999996</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="65">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="8">
         <v>20</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="8">
         <v>0.22509999999999999</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="9">
         <v>0.91</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="9">
         <v>0.84489999999999998</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="8" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="13">
-      <c r="A16" s="4"/>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8" ht="13">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" ht="78">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="8">
         <v>20</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="8">
         <v>0.2099</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="9">
         <v>0.91520000000000001</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="9">
         <v>0.88329999999999997</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="8" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="78">
-      <c r="A19" s="4"/>
-      <c r="B19" s="3" t="s">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="8">
         <v>20</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="8">
         <v>7.0699999999999999E-2</v>
       </c>
       <c r="F19" s="10">
         <v>0.97450000000000003</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="9">
         <v>0.82479999999999998</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="8" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="78">
-      <c r="A20" s="4"/>
-      <c r="B20" s="3" t="s">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="8">
         <v>20</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="8">
         <v>0.30120000000000002</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="9">
         <v>0.87009999999999998</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="9">
         <v>0.86180000000000001</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="8" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="13">
-      <c r="A21" s="4"/>
-      <c r="B21" s="3" t="s">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="23" spans="1:8" s="6" customFormat="1" ht="13">
-      <c r="A23" s="6" t="s">
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="23" spans="1:8" s="1" customFormat="1" ht="13">
+      <c r="A23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="25" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="26" spans="1:8" s="6" customFormat="1" ht="13">
-      <c r="A26" s="6" t="s">
+    <row r="24" spans="1:8" s="1" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:8" s="1" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:8" s="1" customFormat="1" ht="13">
+      <c r="A26" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-    </row>
-    <row r="27" spans="1:8" s="6" customFormat="1" ht="13">
-      <c r="B27" s="6" t="s">
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" s="1" customFormat="1" ht="13">
+      <c r="B27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-    </row>
-    <row r="28" spans="1:8" s="6" customFormat="1" ht="13">
-      <c r="B28" s="6" t="s">
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" s="1" customFormat="1" ht="13">
+      <c r="B28" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-    </row>
-    <row r="29" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="30" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="31" spans="1:8" s="6" customFormat="1" ht="13">
-      <c r="A31" s="6" t="s">
+      <c r="D28" s="4"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" s="1" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:8" s="1" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:8" s="1" customFormat="1" ht="13">
+      <c r="A31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G31" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="6" customFormat="1" ht="13">
-      <c r="B32" s="6" t="s">
+    <row r="32" spans="1:8" s="1" customFormat="1" ht="13">
+      <c r="B32" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="2:2" s="6" customFormat="1" ht="13">
-      <c r="B33" s="6" t="s">
+    <row r="33" spans="2:2" s="1" customFormat="1" ht="13">
+      <c r="B33" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="2:2" s="6" customFormat="1" ht="13">
-      <c r="B34" s="6" t="s">
+    <row r="34" spans="2:2" s="1" customFormat="1" ht="13">
+      <c r="B34" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1178,6 +1215,6 @@
     <mergeCell ref="D28:G28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="47" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup scale="56" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/homework/hw7/NLP.xlsx
+++ b/homework/hw7/NLP.xlsx
@@ -5,25 +5,25 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ziyu/Desktop/Study Affairs/2018-Fall/cs598-deep-learning/homework/hw7/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ziyu/Library/Containers/com.microsoft.Excel/Data/Desktop/Study Affairs/2018-Fall/cs598-deep-learning/homework/hw7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCBDE05-8DE8-2E4A-85E9-78670C1B27E5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FAEB5C-7AE5-1F48-9689-191317FD7D0B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="880" yWindow="0" windowWidth="27920" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$23:$H$34</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="59">
   <si>
     <t>Natural Language Processing - IMDB Movie Review</t>
   </si>
@@ -91,19 +91,7 @@
     <t>Temperature=1.0</t>
   </si>
   <si>
-    <t>a hugely influential , very strong , nuanced stand up comedy part all too much . this is a film that keeps you laughing and cheering for your own reason to watch it . the same has to be done with actors , which is surely `` the best movie '' in recent history because at the time of the vietnam war , ca n't know who to argue they claim they have no choice ... out of human way or out of touch with personal history . even during the idea of technology they are not just up to you . there is a balance between the central characters and even the environment and all of that . the book is beautifully balanced , which is n't since the book . perhaps the ending should have had all the weaknesses of a great book but the essential flaw of the</t>
-  </si>
-  <si>
-    <t>Temperature 0.5</t>
-  </si>
-  <si>
-    <t>i usually like this movie , but this is one of those movies that i could n't believe . i was so excited that the movie was over , i was very disappointed . it was n't that bad , but it was n't . it was n't even funny . i really did n't care about the characters , and the characters were so bad that i could n't stop laughing . i was hoping for a good laugh , but i was n't expecting much . the acting was terrible , the acting was poor , the story moved , and the ending was so bad it was just so bad . the only thing that kept me from watching this movie was the fact that it was so bad . i 'm not sure if it was a good movie , but it was n't . i was</t>
-  </si>
-  <si>
     <t>Part 3c</t>
-  </si>
-  <si>
-    <t>~91%+</t>
   </si>
   <si>
     <t>ADAM optimizer with LR=0.001, BatchSize=200, VocabularySize=100000, HiddenUnits=500</t>
@@ -292,12 +280,73 @@
   <si>
     <t>The number of hidden units is decreased to 100 to make the model underfit. Now the training accuracy is smaller than the given model. Interestingly, the test accuracy doesn't decrease much. A potential explanation is that the given model is overfitting so decreasing the number of hidden units is actually alleviating this problem.</t>
   </si>
+  <si>
+    <t>ADAM optimizer with LR=0.001, BatchSize=200, VocabularySize=8000, HiddenUnits=500, SequenceLengthOfTrain=50, SequenceLengthOfTest=100</t>
+  </si>
+  <si>
+    <t>Temperature=0.5</t>
+  </si>
+  <si>
+    <t>i saw this movie in theaters on tv on video for sale after 10 years . good supporting cast were all . my only complaint is that i made it -- and for a film 's adults , i would think good things which were n't compared to the first two . the director worked but this was a master . as always , the film was heavy moving off and cruelty under the compassion , the bad acting , the writing , score and all of the good comments about the movie . genre photography , room story turned out to be ... okay , maybe they 'll buy it for 10 minutes and see it if you want a weird director for the hard core entertainment to there . well , instead this seems to be a giant piece of crap but some more than average dialogue films .</t>
+  </si>
+  <si>
+    <t>tokens = [['i','love','this','movie','.'],
+['i','hate','this','movie','.']], 
+Temperature=1.0</t>
+  </si>
+  <si>
+    <t>i hate this movie . it 's not even a kids movie -- but i will never mention it ( and almost 1 ) because in my opinion the movie was so predictable that it failed to redeem any interest in the film ( especially in his life ) . the good part was the premise of the text and it was there , though it was plot development . i went to see this movie over and over and over again . now , when i was `` i know why i know it is very bad '' , it introduces a couple of things to start to go with it . the movie is american '' , `` the wizard of oz '' , for example ) is practically unwatchable . if you like horror movies far worse than daniel 's last bits ( help and the glaring lack of cgi ) and</t>
+  </si>
+  <si>
+    <t>a whole 10 or at least 5 minutes later when it started . outside of the actors to question , of course we all know there is another thing a lot of it 's plot line is so bad that these great sets could be been done through some more entertaining , sex scenes . the killer is just about as much fun as i 'd imagined . all in all good movie with a classic soundtrack . this also starts the former 's music and starts getting a long shot of a bat brother . this is just crap as a skin . that was the title factor . there are some great dubbing scenes from the opera play . the songs are great . burton in particular is really cool but he plays similar roles as an officer . and when he disappears a lot too quickly and he</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">SGD optimizer with LR=0.001, momentum=0.9, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+BatchSize=200, VocabularySize=8000, HiddenUnits=500, SequenceLengthOfTrain=100, SequenceLengthOfTest=400</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ADAM optimizer with LR=0.001, BatchSize=200, VocabularySize=8000, HiddenUnits=500, SequenceLengthOfTrain=100, SequenceLengthOfTest=400,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Also train the parameters of LSTM2 layer</t>
+    </r>
+  </si>
+  <si>
+    <t>Use SGD optimizer instead of Adam. The test accuracy decreases. SGD is not as good as Adam when dealing with saddle region or local minima.</t>
+  </si>
+  <si>
+    <t>Instead of just fine-tuning the last LSTM layer, the parameters of the LSTM2 layer are also trained. The model is now overfitting since the training accuracy is much higher than the test accuracy.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -313,17 +362,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0" tint="-0.249977111117893"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0" tint="-0.249977111117893"/>
-      <name val="SFMono-Regular"/>
     </font>
     <font>
       <sz val="10"/>
@@ -369,14 +407,6 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -387,6 +417,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -707,11 +743,11 @@
   </sheetPr>
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H21"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="H34" sqref="A23:H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
@@ -720,493 +756,623 @@
     <col min="8" max="8" width="72.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" spans="1:8" ht="13">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="64.5" customHeight="1">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="4">
         <v>6</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="4">
         <v>0.1464</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="5">
         <v>0.94379999999999997</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="5">
         <v>0.872</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="65">
-      <c r="A4" s="6"/>
-      <c r="B4" s="8" t="s">
+    <row r="4" spans="1:8" ht="65" x14ac:dyDescent="0.15">
+      <c r="A4" s="2"/>
+      <c r="B4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="4">
+        <v>6</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.12509999999999999</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.9526</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.86070000000000002</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="39" x14ac:dyDescent="0.15">
+      <c r="A5" s="2"/>
+      <c r="B5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="4">
+        <v>6</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.42559999999999998</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.81440000000000001</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.83240000000000003</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" ht="52" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="4">
+        <v>6</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.2984</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.87539999999999996</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.85719999999999996</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="52" x14ac:dyDescent="0.15">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="4">
+        <v>6</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.28870000000000001</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.84519999999999995</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="65" x14ac:dyDescent="0.15">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="4">
+        <v>6</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.36940000000000001</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.84040000000000004</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.85340000000000005</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" ht="65" x14ac:dyDescent="0.15">
+      <c r="A13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="4">
+        <v>20</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.10150000000000001</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0.9637</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0.87690000000000001</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="65" x14ac:dyDescent="0.15">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="4">
+        <v>20</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.99429999999999996</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.79069999999999996</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="65" x14ac:dyDescent="0.15">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="4">
+        <v>20</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.22509999999999999</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0.91</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0.84489999999999998</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" ht="78" x14ac:dyDescent="0.15">
+      <c r="A18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="8">
-        <v>6</v>
-      </c>
-      <c r="E4" s="8">
-        <v>0.12509999999999999</v>
-      </c>
-      <c r="F4" s="9">
-        <v>0.9526</v>
-      </c>
-      <c r="G4" s="9">
-        <v>0.86070000000000002</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="39">
-      <c r="A5" s="6"/>
-      <c r="B5" s="8" t="s">
+      <c r="D18" s="4">
+        <v>20</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.2099</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.91520000000000001</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0.88329999999999997</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="78" x14ac:dyDescent="0.15">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D19" s="4">
+        <v>20</v>
+      </c>
+      <c r="E19" s="4">
+        <v>7.0699999999999999E-2</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0.97450000000000003</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0.82479999999999998</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="78" x14ac:dyDescent="0.15">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="8">
-        <v>6</v>
-      </c>
-      <c r="E5" s="8">
-        <v>0.42559999999999998</v>
-      </c>
-      <c r="F5" s="9">
-        <v>0.81440000000000001</v>
-      </c>
-      <c r="G5" s="9">
-        <v>0.83240000000000003</v>
-      </c>
-      <c r="H5" s="8" t="s">
+      <c r="D20" s="4">
+        <v>20</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.30120000000000002</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0.87009999999999998</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0.86180000000000001</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" s="7" customFormat="1" ht="65" x14ac:dyDescent="0.15">
+      <c r="A23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="3">
+        <v>75</v>
+      </c>
+      <c r="E23" s="3">
+        <v>3.9456000000000002</v>
+      </c>
+      <c r="F23" s="8">
+        <v>0.25430000000000003</v>
+      </c>
+      <c r="G23" s="8">
+        <v>0.26979999999999998</v>
+      </c>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" s="7" customFormat="1" ht="118" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" s="7" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" s="7" customFormat="1" ht="121" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" s="7" customFormat="1" ht="65" x14ac:dyDescent="0.15">
+      <c r="A31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="13">
-      <c r="A6" s="6"/>
-      <c r="B6" s="8" t="s">
+      <c r="D31" s="3">
+        <v>30</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0.1724</v>
+      </c>
+      <c r="F31" s="8">
+        <v>0.9304</v>
+      </c>
+      <c r="G31" s="8">
+        <v>0.90790000000000004</v>
+      </c>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" s="7" customFormat="1" ht="78" x14ac:dyDescent="0.15">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="3">
+        <v>30</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0.48859999999999998</v>
+      </c>
+      <c r="F32" s="8">
+        <v>0.76459999999999995</v>
+      </c>
+      <c r="G32" s="8">
+        <v>0.81269999999999998</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="7" customFormat="1" ht="91" x14ac:dyDescent="0.15">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="3">
+        <v>30</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0.1031</v>
+      </c>
+      <c r="F33" s="8">
+        <v>0.94120000000000004</v>
+      </c>
+      <c r="G33" s="8">
+        <v>0.88390000000000002</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="7" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" ht="52">
-      <c r="A8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="8">
-        <v>6</v>
-      </c>
-      <c r="E8" s="8">
-        <v>0.2984</v>
-      </c>
-      <c r="F8" s="9">
-        <v>0.87539999999999996</v>
-      </c>
-      <c r="G8" s="9">
-        <v>0.85719999999999996</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="52">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="8">
-        <v>6</v>
-      </c>
-      <c r="E9" s="8">
-        <v>0.28870000000000001</v>
-      </c>
-      <c r="F9" s="9">
-        <v>0.88</v>
-      </c>
-      <c r="G9" s="9">
-        <v>0.84519999999999995</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="65">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="8">
-        <v>6</v>
-      </c>
-      <c r="E10" s="8">
-        <v>0.36940000000000001</v>
-      </c>
-      <c r="F10" s="9">
-        <v>0.84040000000000004</v>
-      </c>
-      <c r="G10" s="9">
-        <v>0.85340000000000005</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="13">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="1:8" ht="13">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" spans="1:8" ht="65">
-      <c r="A13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="8">
-        <v>20</v>
-      </c>
-      <c r="E13" s="6">
-        <v>0.10150000000000001</v>
-      </c>
-      <c r="F13" s="10">
-        <v>0.9637</v>
-      </c>
-      <c r="G13" s="9">
-        <v>0.87690000000000001</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="65">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="8">
-        <v>20</v>
-      </c>
-      <c r="E14" s="8">
-        <v>1.7500000000000002E-2</v>
-      </c>
-      <c r="F14" s="9">
-        <v>0.99429999999999996</v>
-      </c>
-      <c r="G14" s="9">
-        <v>0.79069999999999996</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="65">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="8">
-        <v>20</v>
-      </c>
-      <c r="E15" s="8">
-        <v>0.22509999999999999</v>
-      </c>
-      <c r="F15" s="9">
-        <v>0.91</v>
-      </c>
-      <c r="G15" s="9">
-        <v>0.84489999999999998</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="13">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" spans="1:8" ht="13">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-    </row>
-    <row r="18" spans="1:8" ht="78">
-      <c r="A18" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="8">
-        <v>20</v>
-      </c>
-      <c r="E18" s="8">
-        <v>0.2099</v>
-      </c>
-      <c r="F18" s="9">
-        <v>0.91520000000000001</v>
-      </c>
-      <c r="G18" s="9">
-        <v>0.88329999999999997</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="78">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="8">
-        <v>20</v>
-      </c>
-      <c r="E19" s="8">
-        <v>7.0699999999999999E-2</v>
-      </c>
-      <c r="F19" s="10">
-        <v>0.97450000000000003</v>
-      </c>
-      <c r="G19" s="9">
-        <v>0.82479999999999998</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="78">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="8">
-        <v>20</v>
-      </c>
-      <c r="E20" s="8">
-        <v>0.30120000000000002</v>
-      </c>
-      <c r="F20" s="9">
-        <v>0.87009999999999998</v>
-      </c>
-      <c r="G20" s="9">
-        <v>0.86180000000000001</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="13">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-    </row>
-    <row r="23" spans="1:8" s="1" customFormat="1" ht="13">
-      <c r="A23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="1" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="25" spans="1:8" s="1" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="26" spans="1:8" s="1" customFormat="1" ht="13">
-      <c r="A26" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:8" s="1" customFormat="1" ht="13">
-      <c r="B27" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:8" s="1" customFormat="1" ht="13">
-      <c r="B28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:8" s="1" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="30" spans="1:8" s="1" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="31" spans="1:8" s="1" customFormat="1" ht="13">
-      <c r="A31" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" s="1" customFormat="1" ht="13">
-      <c r="B32" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" s="1" customFormat="1" ht="13">
-      <c r="B33" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" s="1" customFormat="1" ht="13">
-      <c r="B34" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
